--- a/BalanceSheet/ZBH_bal.xlsx
+++ b/BalanceSheet/ZBH_bal.xlsx
@@ -494,19 +494,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>67800000.0</v>
+        <v>2451000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>14000000.0</v>
+        <v>2492000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-26600000.0</v>
+        <v>2497000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-96000000.0</v>
+        <v>2463000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-19200000.0</v>
+        <v>2385000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>2362300000.0</v>
@@ -1746,19 +1746,19 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>36300000.0</v>
+        <v>330000000.0</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>102500000.0</v>
+        <v>335000000.0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>-138100000.0</v>
+        <v>320000000.0</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>-95800000.0</v>
+        <v>365000000.0</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>120700000.0</v>
+        <v>401000000.0</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>355200000.0</v>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="B20" s="0" t="n">
-        <v>12000000.0</v>
+        <v>790000000.0</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>748000000.0</v>
@@ -2718,7 +2718,7 @@
         <v>858000000.0</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>-538700000.0</v>
+        <v>840000000.0</v>
       </c>
       <c r="G20" s="0" t="n">
         <v>912200000.0</v>
